--- a/jpcore-r4/feature/swg5-medication_refactoring/ValueSet-jp-medication-code-yj-vs.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/ValueSet-jp-medication-code-yj-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T06:49:20+00:00</t>
+    <t>2022-09-07T08:56:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/ValueSet-jp-medication-code-yj-vs.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/ValueSet-jp-medication-code-yj-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T08:56:04+00:00</t>
+    <t>2022-09-07T09:25:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/ValueSet-jp-medication-code-yj-vs.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/ValueSet-jp-medication-code-yj-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T09:25:06+00:00</t>
+    <t>2022-09-07T10:55:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/ValueSet-jp-medication-code-yj-vs.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/ValueSet-jp-medication-code-yj-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T10:55:00+00:00</t>
+    <t>2022-09-07T11:02:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/ValueSet-jp-medication-code-yj-vs.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/ValueSet-jp-medication-code-yj-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T11:02:51+00:00</t>
+    <t>2022-09-07T12:57:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/ValueSet-jp-medication-code-yj-vs.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/ValueSet-jp-medication-code-yj-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T12:57:45+00:00</t>
+    <t>2022-09-07T13:25:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/ValueSet-jp-medication-code-yj-vs.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/ValueSet-jp-medication-code-yj-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T13:25:36+00:00</t>
+    <t>2022-09-07T14:04:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/ValueSet-jp-medication-code-yj-vs.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/ValueSet-jp-medication-code-yj-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T14:04:03+00:00</t>
+    <t>2022-09-09T00:36:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/ValueSet-jp-medication-code-yj-vs.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/ValueSet-jp-medication-code-yj-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-09T00:36:28+00:00</t>
+    <t>2022-09-09T12:25:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
